--- a/premise/data/additional_inventories/lci-ocean-liming.xlsx
+++ b/premise/data/additional_inventories/lci-ocean-liming.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B032FCEA-3971-9548-90CE-91EC70CC9DE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBF8D10-A2EF-A844-AEE6-36FE86F0E10D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1200" yWindow="2000" windowWidth="29040" windowHeight="15840" xr2:uid="{5054DF14-F543-4543-A587-9EF88A74930B}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="OL_inventory" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">OL_inventory!$A$1:$W$122</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">OL_inventory!$A$1:$W$124</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="114">
   <si>
     <t>database</t>
   </si>
@@ -290,15 +290,6 @@
     <t>transport</t>
   </si>
   <si>
-    <t>market for diesel, low-sulfur</t>
-  </si>
-  <si>
-    <t>diesel, low-sulfur</t>
-  </si>
-  <si>
-    <t>For distribution to the ocean</t>
-  </si>
-  <si>
     <t>market for transport, freight, lorry 16-32 metric ton, EURO4</t>
   </si>
   <si>
@@ -314,9 +305,6 @@
     <t>transport, freight, sea, bulk carrier for dry goods</t>
   </si>
   <si>
-    <t>For truck loading, ship loading and dockside operations - the disaggregated consumption flows are presented in the next sheet.</t>
-  </si>
-  <si>
     <t xml:space="preserve">hydrated lime </t>
   </si>
   <si>
@@ -369,6 +357,30 @@
   </si>
   <si>
     <t>natural resource::in air</t>
+  </si>
+  <si>
+    <t>Transport by ship over 8854 km.</t>
+  </si>
+  <si>
+    <t>Transport from plant to the ship dock over 65 km.</t>
+  </si>
+  <si>
+    <t>market for diesel, burned in fishing vessel</t>
+  </si>
+  <si>
+    <t>diesel, burned in fishing vessel</t>
+  </si>
+  <si>
+    <t>Dockside operations. 6.97 kWh/1.32 t handled.</t>
+  </si>
+  <si>
+    <t>For truck loading. 2.94 kWh/1.32 t loaded.</t>
+  </si>
+  <si>
+    <t>Onboard energy spending for distribution to the ocean. 2.94 kWh diesel/1.32 t handled.</t>
+  </si>
+  <si>
+    <t>Energy spending for ship loading. 2.94 kWh/1.32 t handled.</t>
   </si>
 </sst>
 </file>
@@ -430,7 +442,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -464,6 +476,9 @@
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -782,10 +797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D71E7A-46A7-4060-B9FB-6DA0F6E73B40}">
-  <dimension ref="A1:W176"/>
+  <dimension ref="A1:W178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -817,7 +832,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
@@ -1052,7 +1067,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>39</v>
@@ -1072,7 +1087,7 @@
         <v>42</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>39</v>
@@ -1152,7 +1167,7 @@
         <v>49</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>39</v>
@@ -1172,7 +1187,7 @@
         <v>49</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>39</v>
@@ -1192,7 +1207,7 @@
         <v>49</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>39</v>
@@ -1240,7 +1255,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -1482,7 +1497,7 @@
       <c r="H40" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I40" s="12" t="s">
+      <c r="I40" s="13" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1505,7 +1520,7 @@
       <c r="H41" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I41" s="12"/>
+      <c r="I41" s="13"/>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
@@ -1526,7 +1541,7 @@
       <c r="H42" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I42" s="12"/>
+      <c r="I42" s="13"/>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
@@ -1559,7 +1574,7 @@
         <v>2</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.2">
@@ -1567,7 +1582,7 @@
         <v>4</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.2">
@@ -1672,7 +1687,7 @@
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B54" s="5">
         <v>1</v>
@@ -1816,7 +1831,7 @@
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B60" s="5">
         <f>0.4395*B59</f>
@@ -1832,13 +1847,13 @@
         <v>23</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.2">
@@ -1872,7 +1887,7 @@
         <v>2</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.2">
@@ -1880,7 +1895,7 @@
         <v>4</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.2">
@@ -1985,7 +2000,7 @@
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B72" s="5">
         <v>1</v>
@@ -2034,7 +2049,7 @@
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B74" s="5">
         <v>0.75700227100681305</v>
@@ -2084,7 +2099,7 @@
         <v>2</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.2">
@@ -2092,7 +2107,7 @@
         <v>4</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.2">
@@ -2116,7 +2131,7 @@
         <v>9</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="82" spans="1:23" x14ac:dyDescent="0.2">
@@ -2197,9 +2212,9 @@
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B85" s="5">
+        <v>97</v>
+      </c>
+      <c r="B85" s="11">
         <v>1</v>
       </c>
       <c r="C85" s="2" t="s">
@@ -2212,7 +2227,7 @@
         <v>19</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H85" s="2" t="s">
         <v>82</v>
@@ -2220,40 +2235,42 @@
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B86" s="5">
-        <v>2.9399999999999995E-3</v>
+        <v>108</v>
+      </c>
+      <c r="B86" s="11">
+        <f>(2.94/1000)*3.6</f>
+        <v>1.0584E-2</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>34</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="J86" s="7"/>
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B87" s="5">
-        <v>8.5899999999999949E-2</v>
+        <v>83</v>
+      </c>
+      <c r="B87" s="11">
+        <f>85.9/1000</f>
+        <v>8.5900000000000004E-2</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>8</v>
@@ -2262,22 +2279,26 @@
         <v>23</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H87" s="2" t="s">
         <v>82</v>
       </c>
+      <c r="I87" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="J87" s="7"/>
     </row>
     <row r="88" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B88" s="5">
-        <v>3.7000000000000021E-4</v>
+        <v>86</v>
+      </c>
+      <c r="B88" s="11">
+        <f>0.37/1000</f>
+        <v>3.6999999999999999E-4</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>32</v>
@@ -2286,10 +2307,13 @@
         <v>23</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>82</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="J88" s="7"/>
     </row>
@@ -2297,8 +2321,9 @@
       <c r="A89" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B89" s="5">
-        <v>1.285E-2</v>
+      <c r="B89" s="11">
+        <f>2.94/1000</f>
+        <v>2.9399999999999999E-3</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>62</v>
@@ -2316,19 +2341,20 @@
         <v>64</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="J89" s="7"/>
     </row>
     <row r="90" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B90" s="5">
-        <v>1.321</v>
+        <v>61</v>
+      </c>
+      <c r="B90" s="11">
+        <f>6.97/1000</f>
+        <v>6.9699999999999996E-3</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>8</v>
@@ -2337,130 +2363,175 @@
         <v>23</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="H90" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J90" s="7"/>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B91" s="11">
+        <f>2.94/1000</f>
+        <v>2.9399999999999999E-3</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="J91" s="7"/>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B92" s="11">
+        <v>1.321</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H92" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="J90" s="7"/>
-    </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A91" s="3" t="s">
+      <c r="J92" s="7"/>
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A93" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B93" s="12">
+        <v>1</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B91" s="3">
-        <v>1</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3" t="s">
+      <c r="E93" s="3"/>
+      <c r="F93" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G91" s="3"/>
-      <c r="H91" s="3"/>
-      <c r="I91" s="3"/>
-    </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B94" s="8"/>
-    </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A97" s="9"/>
-    </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A98" s="9"/>
-      <c r="B98" s="9"/>
-      <c r="C98" s="9"/>
-      <c r="D98" s="9"/>
-      <c r="E98" s="9"/>
-      <c r="F98" s="9"/>
-      <c r="G98" s="9"/>
-      <c r="H98" s="9"/>
-      <c r="I98" s="9"/>
-      <c r="J98" s="10"/>
-      <c r="K98" s="10"/>
-      <c r="L98" s="10"/>
-      <c r="M98" s="10"/>
-      <c r="N98" s="10"/>
-      <c r="O98" s="10"/>
-      <c r="P98" s="10"/>
-      <c r="Q98" s="10"/>
-      <c r="R98" s="10"/>
-      <c r="S98" s="10"/>
-      <c r="T98" s="10"/>
-      <c r="U98" s="10"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="3"/>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B96" s="8"/>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="E99" s="8"/>
+      <c r="A99" s="9"/>
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B100" s="5"/>
-      <c r="M100" s="6"/>
+      <c r="A100" s="9"/>
+      <c r="B100" s="9"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="9"/>
+      <c r="H100" s="9"/>
+      <c r="I100" s="9"/>
+      <c r="J100" s="10"/>
+      <c r="K100" s="10"/>
+      <c r="L100" s="10"/>
+      <c r="M100" s="10"/>
+      <c r="N100" s="10"/>
+      <c r="O100" s="10"/>
+      <c r="P100" s="10"/>
+      <c r="Q100" s="10"/>
+      <c r="R100" s="10"/>
+      <c r="S100" s="10"/>
+      <c r="T100" s="10"/>
+      <c r="U100" s="10"/>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B101" s="11"/>
-      <c r="M101" s="6"/>
+      <c r="E101" s="8"/>
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B102" s="11"/>
+      <c r="B102" s="5"/>
       <c r="M102" s="6"/>
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B103" s="11"/>
       <c r="M103" s="6"/>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B104" s="11"/>
       <c r="M104" s="6"/>
     </row>
+    <row r="105" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="M105" s="6"/>
+    </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A106" s="9"/>
-      <c r="B106" s="9"/>
-    </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B109" s="8"/>
-    </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A112" s="9"/>
-    </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A113" s="9"/>
-      <c r="B113" s="9"/>
-      <c r="C113" s="9"/>
-      <c r="D113" s="9"/>
-      <c r="E113" s="9"/>
-      <c r="F113" s="9"/>
-      <c r="G113" s="9"/>
-      <c r="H113" s="9"/>
-      <c r="I113" s="9"/>
-      <c r="J113" s="10"/>
-      <c r="K113" s="10"/>
-      <c r="L113" s="10"/>
-      <c r="M113" s="10"/>
-      <c r="N113" s="10"/>
-      <c r="O113" s="10"/>
-      <c r="P113" s="10"/>
-      <c r="Q113" s="10"/>
-      <c r="R113" s="10"/>
-      <c r="S113" s="10"/>
-      <c r="T113" s="10"/>
-      <c r="U113" s="10"/>
+      <c r="B106" s="11"/>
+      <c r="M106" s="6"/>
+    </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A108" s="9"/>
+      <c r="B108" s="9"/>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B111" s="8"/>
     </row>
     <row r="114" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="E114" s="8"/>
+      <c r="A114" s="9"/>
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B115" s="5"/>
-      <c r="E115" s="8"/>
-      <c r="M115" s="6"/>
+      <c r="A115" s="9"/>
+      <c r="B115" s="9"/>
+      <c r="C115" s="9"/>
+      <c r="D115" s="9"/>
+      <c r="E115" s="9"/>
+      <c r="F115" s="9"/>
+      <c r="G115" s="9"/>
+      <c r="H115" s="9"/>
+      <c r="I115" s="9"/>
+      <c r="J115" s="10"/>
+      <c r="K115" s="10"/>
+      <c r="L115" s="10"/>
+      <c r="M115" s="10"/>
+      <c r="N115" s="10"/>
+      <c r="O115" s="10"/>
+      <c r="P115" s="10"/>
+      <c r="Q115" s="10"/>
+      <c r="R115" s="10"/>
+      <c r="S115" s="10"/>
+      <c r="T115" s="10"/>
+      <c r="U115" s="10"/>
     </row>
     <row r="116" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B116" s="5"/>
       <c r="E116" s="8"/>
-      <c r="M116" s="6"/>
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B117" s="5"/>
@@ -2468,59 +2539,61 @@
       <c r="M117" s="6"/>
     </row>
     <row r="118" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B118" s="11"/>
+      <c r="B118" s="5"/>
+      <c r="E118" s="8"/>
       <c r="M118" s="6"/>
     </row>
     <row r="119" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B119" s="11"/>
+      <c r="B119" s="5"/>
+      <c r="E119" s="8"/>
       <c r="M119" s="6"/>
     </row>
     <row r="120" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B120" s="11"/>
       <c r="M120" s="6"/>
     </row>
     <row r="121" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B121" s="11"/>
       <c r="M121" s="6"/>
     </row>
+    <row r="122" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="M122" s="6"/>
+    </row>
     <row r="123" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A123" s="9"/>
-      <c r="B123" s="9"/>
-    </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A130" s="9"/>
-    </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A131" s="9"/>
-      <c r="B131" s="9"/>
-      <c r="C131" s="9"/>
-      <c r="D131" s="9"/>
-      <c r="E131" s="9"/>
-      <c r="F131" s="9"/>
-      <c r="G131" s="9"/>
-      <c r="H131" s="9"/>
-      <c r="I131" s="9"/>
-      <c r="J131" s="10"/>
-      <c r="K131" s="10"/>
-      <c r="L131" s="10"/>
-      <c r="M131" s="10"/>
-      <c r="N131" s="10"/>
-      <c r="O131" s="10"/>
-      <c r="P131" s="10"/>
-      <c r="Q131" s="10"/>
-      <c r="R131" s="10"/>
-      <c r="S131" s="10"/>
-      <c r="T131" s="10"/>
-      <c r="U131" s="10"/>
-      <c r="V131" s="10"/>
-      <c r="W131" s="10"/>
+      <c r="B123" s="11"/>
+      <c r="M123" s="6"/>
+    </row>
+    <row r="125" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A125" s="9"/>
+      <c r="B125" s="9"/>
+    </row>
+    <row r="132" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A132" s="9"/>
     </row>
     <row r="133" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B133" s="5"/>
-      <c r="O133" s="6"/>
-    </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B134" s="5"/>
-      <c r="O134" s="6"/>
+      <c r="A133" s="9"/>
+      <c r="B133" s="9"/>
+      <c r="C133" s="9"/>
+      <c r="D133" s="9"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="9"/>
+      <c r="G133" s="9"/>
+      <c r="H133" s="9"/>
+      <c r="I133" s="9"/>
+      <c r="J133" s="10"/>
+      <c r="K133" s="10"/>
+      <c r="L133" s="10"/>
+      <c r="M133" s="10"/>
+      <c r="N133" s="10"/>
+      <c r="O133" s="10"/>
+      <c r="P133" s="10"/>
+      <c r="Q133" s="10"/>
+      <c r="R133" s="10"/>
+      <c r="S133" s="10"/>
+      <c r="T133" s="10"/>
+      <c r="U133" s="10"/>
+      <c r="V133" s="10"/>
+      <c r="W133" s="10"/>
     </row>
     <row r="135" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B135" s="5"/>
@@ -2535,135 +2608,143 @@
       <c r="O137" s="6"/>
     </row>
     <row r="138" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B138" s="11"/>
+      <c r="B138" s="5"/>
       <c r="O138" s="6"/>
     </row>
     <row r="139" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B139" s="11"/>
+      <c r="B139" s="5"/>
       <c r="O139" s="6"/>
     </row>
     <row r="140" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B140" s="11"/>
       <c r="O140" s="6"/>
     </row>
     <row r="141" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B141" s="11"/>
       <c r="O141" s="6"/>
     </row>
     <row r="142" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B142" s="11"/>
       <c r="O142" s="6"/>
     </row>
+    <row r="143" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="O143" s="6"/>
+    </row>
     <row r="144" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A144" s="9"/>
-      <c r="B144" s="9"/>
-    </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A151" s="9"/>
-    </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A152" s="9"/>
-      <c r="B152" s="9"/>
-      <c r="C152" s="9"/>
-      <c r="D152" s="9"/>
-      <c r="E152" s="9"/>
-      <c r="F152" s="9"/>
-      <c r="G152" s="9"/>
-      <c r="H152" s="9"/>
-      <c r="I152" s="9"/>
-      <c r="J152" s="10"/>
-      <c r="K152" s="10"/>
-      <c r="L152" s="10"/>
-      <c r="M152" s="10"/>
-      <c r="N152" s="10"/>
-      <c r="O152" s="10"/>
-      <c r="P152" s="10"/>
-      <c r="Q152" s="10"/>
-      <c r="R152" s="10"/>
-      <c r="S152" s="10"/>
-      <c r="T152" s="10"/>
-      <c r="U152" s="10"/>
-      <c r="V152" s="10"/>
-      <c r="W152" s="10"/>
+      <c r="B144" s="11"/>
+      <c r="O144" s="6"/>
+    </row>
+    <row r="146" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A146" s="9"/>
+      <c r="B146" s="9"/>
+    </row>
+    <row r="153" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A153" s="9"/>
     </row>
     <row r="154" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B154" s="5"/>
-      <c r="O154" s="6"/>
-    </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B155" s="11"/>
-      <c r="O155" s="6"/>
+      <c r="A154" s="9"/>
+      <c r="B154" s="9"/>
+      <c r="C154" s="9"/>
+      <c r="D154" s="9"/>
+      <c r="E154" s="9"/>
+      <c r="F154" s="9"/>
+      <c r="G154" s="9"/>
+      <c r="H154" s="9"/>
+      <c r="I154" s="9"/>
+      <c r="J154" s="10"/>
+      <c r="K154" s="10"/>
+      <c r="L154" s="10"/>
+      <c r="M154" s="10"/>
+      <c r="N154" s="10"/>
+      <c r="O154" s="10"/>
+      <c r="P154" s="10"/>
+      <c r="Q154" s="10"/>
+      <c r="R154" s="10"/>
+      <c r="S154" s="10"/>
+      <c r="T154" s="10"/>
+      <c r="U154" s="10"/>
+      <c r="V154" s="10"/>
+      <c r="W154" s="10"/>
     </row>
     <row r="156" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B156" s="11"/>
+      <c r="B156" s="5"/>
       <c r="O156" s="6"/>
     </row>
     <row r="157" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B157" s="11"/>
       <c r="O157" s="6"/>
     </row>
     <row r="158" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B158" s="11"/>
       <c r="O158" s="6"/>
     </row>
+    <row r="159" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="O159" s="6"/>
+    </row>
     <row r="160" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A160" s="9"/>
-      <c r="B160" s="9"/>
-    </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A167" s="9"/>
-    </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A168" s="9"/>
-      <c r="B168" s="9"/>
-      <c r="C168" s="9"/>
-      <c r="D168" s="9"/>
-      <c r="E168" s="9"/>
-      <c r="F168" s="9"/>
-      <c r="G168" s="9"/>
-      <c r="H168" s="9"/>
-      <c r="I168" s="9"/>
-      <c r="J168" s="10"/>
-      <c r="K168" s="10"/>
-      <c r="L168" s="10"/>
-      <c r="M168" s="10"/>
-      <c r="N168" s="10"/>
-      <c r="O168" s="10"/>
-      <c r="P168" s="10"/>
-      <c r="Q168" s="10"/>
-      <c r="R168" s="10"/>
-      <c r="S168" s="10"/>
-      <c r="T168" s="10"/>
-      <c r="U168" s="10"/>
-      <c r="V168" s="10"/>
-      <c r="W168" s="10"/>
+      <c r="B160" s="11"/>
+      <c r="O160" s="6"/>
+    </row>
+    <row r="162" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A162" s="9"/>
+      <c r="B162" s="9"/>
+    </row>
+    <row r="169" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A169" s="9"/>
     </row>
     <row r="170" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B170" s="5"/>
-      <c r="O170" s="6"/>
-    </row>
-    <row r="171" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B171" s="5"/>
-      <c r="O171" s="6"/>
+      <c r="A170" s="9"/>
+      <c r="B170" s="9"/>
+      <c r="C170" s="9"/>
+      <c r="D170" s="9"/>
+      <c r="E170" s="9"/>
+      <c r="F170" s="9"/>
+      <c r="G170" s="9"/>
+      <c r="H170" s="9"/>
+      <c r="I170" s="9"/>
+      <c r="J170" s="10"/>
+      <c r="K170" s="10"/>
+      <c r="L170" s="10"/>
+      <c r="M170" s="10"/>
+      <c r="N170" s="10"/>
+      <c r="O170" s="10"/>
+      <c r="P170" s="10"/>
+      <c r="Q170" s="10"/>
+      <c r="R170" s="10"/>
+      <c r="S170" s="10"/>
+      <c r="T170" s="10"/>
+      <c r="U170" s="10"/>
+      <c r="V170" s="10"/>
+      <c r="W170" s="10"/>
     </row>
     <row r="172" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B172" s="5"/>
       <c r="O172" s="6"/>
     </row>
     <row r="173" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B173" s="11"/>
+      <c r="B173" s="5"/>
       <c r="O173" s="6"/>
     </row>
     <row r="174" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B174" s="11"/>
+      <c r="B174" s="5"/>
       <c r="O174" s="6"/>
     </row>
     <row r="175" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B175" s="11"/>
       <c r="O175" s="6"/>
     </row>
     <row r="176" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B176" s="11"/>
       <c r="O176" s="6"/>
     </row>
+    <row r="177" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O177" s="6"/>
+    </row>
+    <row r="178" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B178" s="11"/>
+      <c r="O178" s="6"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:W122" xr:uid="{0E2FA153-E6EA-3E4B-BE1A-EC0443996927}"/>
+  <autoFilter ref="A1:W124" xr:uid="{0E2FA153-E6EA-3E4B-BE1A-EC0443996927}"/>
   <mergeCells count="1">
     <mergeCell ref="I40:I42"/>
   </mergeCells>

--- a/premise/data/additional_inventories/lci-ocean-liming.xlsx
+++ b/premise/data/additional_inventories/lci-ocean-liming.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBF8D10-A2EF-A844-AEE6-36FE86F0E10D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B7B489-67DF-CF4E-B1B8-4A4F59D00FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1200" yWindow="2000" windowWidth="29040" windowHeight="15840" xr2:uid="{5054DF14-F543-4543-A587-9EF88A74930B}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="114">
   <si>
     <t>database</t>
   </si>
@@ -347,9 +347,6 @@
     <t>Carbon dioxide, in air</t>
   </si>
   <si>
-    <t>hydrated lime, spread on ocean</t>
-  </si>
-  <si>
     <t>natural resource::in ground</t>
   </si>
   <si>
@@ -381,6 +378,9 @@
   </si>
   <si>
     <t>Energy spending for ship loading. 2.94 kWh/1.32 t handled.</t>
+  </si>
+  <si>
+    <t>carbon dioxide, captured and stored</t>
   </si>
 </sst>
 </file>
@@ -799,8 +799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D71E7A-46A7-4060-B9FB-6DA0F6E73B40}">
   <dimension ref="A1:W178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D84" sqref="D84"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1067,7 +1067,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>39</v>
@@ -1087,7 +1087,7 @@
         <v>42</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>39</v>
@@ -1167,7 +1167,7 @@
         <v>49</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>39</v>
@@ -1187,7 +1187,7 @@
         <v>49</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>39</v>
@@ -1207,7 +1207,7 @@
         <v>49</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>39</v>
@@ -2131,7 +2131,7 @@
         <v>9</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
     </row>
     <row r="82" spans="1:23" x14ac:dyDescent="0.2">
@@ -2226,8 +2226,9 @@
       <c r="F85" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G85" s="2" t="s">
-        <v>102</v>
+      <c r="G85" s="2" t="str">
+        <f>B81</f>
+        <v>carbon dioxide, captured and stored</v>
       </c>
       <c r="H85" s="2" t="s">
         <v>82</v>
@@ -2235,7 +2236,7 @@
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B86" s="11">
         <f>(2.94/1000)*3.6</f>
@@ -2251,13 +2252,13 @@
         <v>23</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>34</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J86" s="7"/>
     </row>
@@ -2285,7 +2286,7 @@
         <v>82</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J87" s="7"/>
     </row>
@@ -2313,7 +2314,7 @@
         <v>82</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J88" s="7"/>
     </row>
@@ -2341,7 +2342,7 @@
         <v>64</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J89" s="7"/>
     </row>
@@ -2369,7 +2370,7 @@
         <v>64</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J90" s="7"/>
     </row>
@@ -2397,7 +2398,7 @@
         <v>64</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J91" s="7"/>
     </row>
@@ -2436,7 +2437,7 @@
         <v>12</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E93" s="3"/>
       <c r="F93" s="3" t="s">

--- a/premise/data/additional_inventories/lci-ocean-liming.xlsx
+++ b/premise/data/additional_inventories/lci-ocean-liming.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B7B489-67DF-CF4E-B1B8-4A4F59D00FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE8549D-4919-E94F-B710-E9E07B14A4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="2000" windowWidth="29040" windowHeight="15840" xr2:uid="{5054DF14-F543-4543-A587-9EF88A74930B}"/>
+    <workbookView xWindow="34840" yWindow="600" windowWidth="29040" windowHeight="15840" xr2:uid="{5054DF14-F543-4543-A587-9EF88A74930B}"/>
   </bookViews>
   <sheets>
     <sheet name="OL_inventory" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="114">
   <si>
     <t>database</t>
   </si>
@@ -332,9 +332,6 @@
     <t>Assumes 439.5 kg CO2/ton limestone calcinated.</t>
   </si>
   <si>
-    <t>carbon dioxide, captured and stored by ocean liming</t>
-  </si>
-  <si>
     <t>This dataset supplies the transportation and spreading of hydrated lime to and in the ocean. The overland distance of hydrated lime from the plant to the port is considered to be 65km. Ca(OH)₂ is assumed to be spread through a bulk carrier ship over an average distance of 8854 km. To account for the fact that Ca(OH)₂ discharging might begin soon after the ship has left the port, it is assumed that the ship will travel this distance half-loaded (50% load factor). Source: Foteinis, S., Andresen, J., Campo, F., Caserini, S., &amp; Renforth, P. (2022). Life cycle assessment of ocean liming for carbon dioxide removal from the atmosphere. Journal of Cleaner Production, 370, 133309. https://doi.org/10.1016/J.JCLEPRO.2022.133309</t>
   </si>
   <si>
@@ -380,7 +377,10 @@
     <t>Energy spending for ship loading. 2.94 kWh/1.32 t handled.</t>
   </si>
   <si>
-    <t>carbon dioxide, captured and stored</t>
+    <t>carbon dioxide, captured and stored, by ocean liming</t>
+  </si>
+  <si>
+    <t>carbon dioxide, captured</t>
   </si>
 </sst>
 </file>
@@ -799,8 +799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D71E7A-46A7-4060-B9FB-6DA0F6E73B40}">
   <dimension ref="A1:W178"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G86" sqref="G86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1067,7 +1067,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>39</v>
@@ -1087,7 +1087,7 @@
         <v>42</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>39</v>
@@ -1167,7 +1167,7 @@
         <v>49</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>39</v>
@@ -1187,7 +1187,7 @@
         <v>49</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>39</v>
@@ -1207,7 +1207,7 @@
         <v>49</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>39</v>
@@ -1887,7 +1887,7 @@
         <v>2</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.2">
@@ -1895,7 +1895,7 @@
         <v>4</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.2">
@@ -2000,7 +2000,7 @@
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B72" s="5">
         <v>1</v>
@@ -2099,7 +2099,7 @@
         <v>2</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.2">
@@ -2107,7 +2107,7 @@
         <v>4</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.2">
@@ -2211,8 +2211,9 @@
       <c r="U84" s="4"/>
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A85" s="2" t="s">
-        <v>97</v>
+      <c r="A85" s="2" t="str">
+        <f>B77</f>
+        <v>carbon dioxide, captured and stored, by ocean liming</v>
       </c>
       <c r="B85" s="11">
         <v>1</v>
@@ -2228,7 +2229,7 @@
       </c>
       <c r="G85" s="2" t="str">
         <f>B81</f>
-        <v>carbon dioxide, captured and stored</v>
+        <v>carbon dioxide, captured</v>
       </c>
       <c r="H85" s="2" t="s">
         <v>82</v>
@@ -2236,7 +2237,7 @@
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B86" s="11">
         <f>(2.94/1000)*3.6</f>
@@ -2252,13 +2253,13 @@
         <v>23</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>34</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J86" s="7"/>
     </row>
@@ -2286,7 +2287,7 @@
         <v>82</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J87" s="7"/>
     </row>
@@ -2314,7 +2315,7 @@
         <v>82</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J88" s="7"/>
     </row>
@@ -2342,7 +2343,7 @@
         <v>64</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J89" s="7"/>
     </row>
@@ -2370,7 +2371,7 @@
         <v>64</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J90" s="7"/>
     </row>
@@ -2398,13 +2399,13 @@
         <v>64</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J91" s="7"/>
     </row>
     <row r="92" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B92" s="11">
         <v>1.321</v>
@@ -2428,7 +2429,7 @@
     </row>
     <row r="93" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B93" s="12">
         <v>1</v>
@@ -2437,7 +2438,7 @@
         <v>12</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E93" s="3"/>
       <c r="F93" s="3" t="s">

--- a/premise/data/additional_inventories/lci-ocean-liming.xlsx
+++ b/premise/data/additional_inventories/lci-ocean-liming.xlsx
@@ -3984,7 +3984,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>CPC::37420:Quicklime, slaked lime and hydraulic lime</t>
+          <t>CPC::949:Other environmental protection services n.e.c.</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
